--- a/public/general.xlsx
+++ b/public/general.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="855">
   <si>
     <t>序号</t>
   </si>
@@ -1153,9 +1153,6 @@
   </si>
   <si>
     <t>http://movie.douban.com/subject/25741475/</t>
-  </si>
-  <si>
-    <t>无</t>
   </si>
   <si>
     <t>马可波罗 第一季</t>
@@ -2593,7 +2590,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2604,6 +2601,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2627,13 +2642,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -19477,8 +19496,8 @@
       <c r="W174">
         <v>13</v>
       </c>
-      <c r="X174" t="s">
-        <v>378</v>
+      <c r="X174">
+        <v>43</v>
       </c>
       <c r="Y174">
         <v>7.1</v>
@@ -19513,10 +19532,10 @@
         <v>2014</v>
       </c>
       <c r="D175" t="s">
+        <v>378</v>
+      </c>
+      <c r="E175" t="s">
         <v>379</v>
-      </c>
-      <c r="E175" t="s">
-        <v>380</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -19608,10 +19627,10 @@
         <v>2014</v>
       </c>
       <c r="D176" t="s">
+        <v>380</v>
+      </c>
+      <c r="E176" t="s">
         <v>381</v>
-      </c>
-      <c r="E176" t="s">
-        <v>382</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -19703,10 +19722,10 @@
         <v>2014</v>
       </c>
       <c r="D177" t="s">
+        <v>382</v>
+      </c>
+      <c r="E177" t="s">
         <v>383</v>
-      </c>
-      <c r="E177" t="s">
-        <v>384</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -19798,10 +19817,10 @@
         <v>2014</v>
       </c>
       <c r="D178" t="s">
+        <v>384</v>
+      </c>
+      <c r="E178" t="s">
         <v>385</v>
-      </c>
-      <c r="E178" t="s">
-        <v>386</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -19893,10 +19912,10 @@
         <v>2014</v>
       </c>
       <c r="D179" t="s">
+        <v>386</v>
+      </c>
+      <c r="E179" t="s">
         <v>387</v>
-      </c>
-      <c r="E179" t="s">
-        <v>388</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -19988,10 +20007,10 @@
         <v>2014</v>
       </c>
       <c r="D180" t="s">
+        <v>388</v>
+      </c>
+      <c r="E180" t="s">
         <v>389</v>
-      </c>
-      <c r="E180" t="s">
-        <v>390</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -20083,10 +20102,10 @@
         <v>2014</v>
       </c>
       <c r="D181" t="s">
+        <v>390</v>
+      </c>
+      <c r="E181" t="s">
         <v>391</v>
-      </c>
-      <c r="E181" t="s">
-        <v>392</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -20178,10 +20197,10 @@
         <v>2014</v>
       </c>
       <c r="D182" t="s">
+        <v>392</v>
+      </c>
+      <c r="E182" t="s">
         <v>393</v>
-      </c>
-      <c r="E182" t="s">
-        <v>394</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -20273,10 +20292,10 @@
         <v>2014</v>
       </c>
       <c r="D183" t="s">
+        <v>394</v>
+      </c>
+      <c r="E183" t="s">
         <v>395</v>
-      </c>
-      <c r="E183" t="s">
-        <v>396</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -20368,10 +20387,10 @@
         <v>2014</v>
       </c>
       <c r="D184" t="s">
+        <v>396</v>
+      </c>
+      <c r="E184" t="s">
         <v>397</v>
-      </c>
-      <c r="E184" t="s">
-        <v>398</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -20463,10 +20482,10 @@
         <v>2014</v>
       </c>
       <c r="D185" t="s">
+        <v>398</v>
+      </c>
+      <c r="E185" t="s">
         <v>399</v>
-      </c>
-      <c r="E185" t="s">
-        <v>400</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -20558,10 +20577,10 @@
         <v>2014</v>
       </c>
       <c r="D186" t="s">
+        <v>400</v>
+      </c>
+      <c r="E186" t="s">
         <v>401</v>
-      </c>
-      <c r="E186" t="s">
-        <v>402</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -20653,10 +20672,10 @@
         <v>2014</v>
       </c>
       <c r="D187" t="s">
+        <v>402</v>
+      </c>
+      <c r="E187" t="s">
         <v>403</v>
-      </c>
-      <c r="E187" t="s">
-        <v>404</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -20748,10 +20767,10 @@
         <v>2014</v>
       </c>
       <c r="D188" t="s">
+        <v>404</v>
+      </c>
+      <c r="E188" t="s">
         <v>405</v>
-      </c>
-      <c r="E188" t="s">
-        <v>406</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -20843,10 +20862,10 @@
         <v>2014</v>
       </c>
       <c r="D189" t="s">
+        <v>406</v>
+      </c>
+      <c r="E189" t="s">
         <v>407</v>
-      </c>
-      <c r="E189" t="s">
-        <v>408</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -20938,10 +20957,10 @@
         <v>2014</v>
       </c>
       <c r="D190" t="s">
+        <v>408</v>
+      </c>
+      <c r="E190" t="s">
         <v>409</v>
-      </c>
-      <c r="E190" t="s">
-        <v>410</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -21033,10 +21052,10 @@
         <v>2014</v>
       </c>
       <c r="D191" t="s">
+        <v>410</v>
+      </c>
+      <c r="E191" t="s">
         <v>411</v>
-      </c>
-      <c r="E191" t="s">
-        <v>412</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -21128,10 +21147,10 @@
         <v>2014</v>
       </c>
       <c r="D192" t="s">
+        <v>412</v>
+      </c>
+      <c r="E192" t="s">
         <v>413</v>
-      </c>
-      <c r="E192" t="s">
-        <v>414</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -21223,10 +21242,10 @@
         <v>2014</v>
       </c>
       <c r="D193" t="s">
+        <v>414</v>
+      </c>
+      <c r="E193" t="s">
         <v>415</v>
-      </c>
-      <c r="E193" t="s">
-        <v>416</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -21318,10 +21337,10 @@
         <v>2014</v>
       </c>
       <c r="D194" t="s">
+        <v>416</v>
+      </c>
+      <c r="E194" t="s">
         <v>417</v>
-      </c>
-      <c r="E194" t="s">
-        <v>418</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -21413,10 +21432,10 @@
         <v>2014</v>
       </c>
       <c r="D195" t="s">
+        <v>418</v>
+      </c>
+      <c r="E195" t="s">
         <v>419</v>
-      </c>
-      <c r="E195" t="s">
-        <v>420</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -21508,10 +21527,10 @@
         <v>2014</v>
       </c>
       <c r="D196" t="s">
+        <v>420</v>
+      </c>
+      <c r="E196" t="s">
         <v>421</v>
-      </c>
-      <c r="E196" t="s">
-        <v>422</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -21603,10 +21622,10 @@
         <v>2014</v>
       </c>
       <c r="D197" t="s">
+        <v>422</v>
+      </c>
+      <c r="E197" t="s">
         <v>423</v>
-      </c>
-      <c r="E197" t="s">
-        <v>424</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -21698,10 +21717,10 @@
         <v>2014</v>
       </c>
       <c r="D198" t="s">
+        <v>424</v>
+      </c>
+      <c r="E198" t="s">
         <v>425</v>
-      </c>
-      <c r="E198" t="s">
-        <v>426</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -21793,10 +21812,10 @@
         <v>2014</v>
       </c>
       <c r="D199" t="s">
+        <v>426</v>
+      </c>
+      <c r="E199" t="s">
         <v>427</v>
-      </c>
-      <c r="E199" t="s">
-        <v>428</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -21888,10 +21907,10 @@
         <v>2014</v>
       </c>
       <c r="D200" t="s">
+        <v>428</v>
+      </c>
+      <c r="E200" t="s">
         <v>429</v>
-      </c>
-      <c r="E200" t="s">
-        <v>430</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -21983,10 +22002,10 @@
         <v>2014</v>
       </c>
       <c r="D201" t="s">
+        <v>430</v>
+      </c>
+      <c r="E201" t="s">
         <v>431</v>
-      </c>
-      <c r="E201" t="s">
-        <v>432</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -22078,10 +22097,10 @@
         <v>2014</v>
       </c>
       <c r="D202" t="s">
+        <v>432</v>
+      </c>
+      <c r="E202" t="s">
         <v>433</v>
-      </c>
-      <c r="E202" t="s">
-        <v>434</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -22173,10 +22192,10 @@
         <v>2014</v>
       </c>
       <c r="D203" t="s">
+        <v>434</v>
+      </c>
+      <c r="E203" t="s">
         <v>435</v>
-      </c>
-      <c r="E203" t="s">
-        <v>436</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -22268,10 +22287,10 @@
         <v>2014</v>
       </c>
       <c r="D204" t="s">
+        <v>436</v>
+      </c>
+      <c r="E204" t="s">
         <v>437</v>
-      </c>
-      <c r="E204" t="s">
-        <v>438</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -22363,10 +22382,10 @@
         <v>2014</v>
       </c>
       <c r="D205" t="s">
+        <v>438</v>
+      </c>
+      <c r="E205" t="s">
         <v>439</v>
-      </c>
-      <c r="E205" t="s">
-        <v>440</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -22458,10 +22477,10 @@
         <v>2014</v>
       </c>
       <c r="D206" t="s">
+        <v>440</v>
+      </c>
+      <c r="E206" t="s">
         <v>441</v>
-      </c>
-      <c r="E206" t="s">
-        <v>442</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -22553,10 +22572,10 @@
         <v>2014</v>
       </c>
       <c r="D207" t="s">
+        <v>442</v>
+      </c>
+      <c r="E207" t="s">
         <v>443</v>
-      </c>
-      <c r="E207" t="s">
-        <v>444</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -22648,10 +22667,10 @@
         <v>2014</v>
       </c>
       <c r="D208" t="s">
+        <v>444</v>
+      </c>
+      <c r="E208" t="s">
         <v>445</v>
-      </c>
-      <c r="E208" t="s">
-        <v>446</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -22743,10 +22762,10 @@
         <v>2014</v>
       </c>
       <c r="D209" t="s">
+        <v>446</v>
+      </c>
+      <c r="E209" t="s">
         <v>447</v>
-      </c>
-      <c r="E209" t="s">
-        <v>448</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -22838,10 +22857,10 @@
         <v>2014</v>
       </c>
       <c r="D210" t="s">
+        <v>448</v>
+      </c>
+      <c r="E210" t="s">
         <v>449</v>
-      </c>
-      <c r="E210" t="s">
-        <v>450</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -22933,10 +22952,10 @@
         <v>2014</v>
       </c>
       <c r="D211" t="s">
+        <v>450</v>
+      </c>
+      <c r="E211" t="s">
         <v>451</v>
-      </c>
-      <c r="E211" t="s">
-        <v>452</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -23028,10 +23047,10 @@
         <v>2014</v>
       </c>
       <c r="D212" t="s">
+        <v>452</v>
+      </c>
+      <c r="E212" t="s">
         <v>453</v>
-      </c>
-      <c r="E212" t="s">
-        <v>454</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -23123,10 +23142,10 @@
         <v>2014</v>
       </c>
       <c r="D213" t="s">
+        <v>454</v>
+      </c>
+      <c r="E213" t="s">
         <v>455</v>
-      </c>
-      <c r="E213" t="s">
-        <v>456</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -23218,10 +23237,10 @@
         <v>2014</v>
       </c>
       <c r="D214" t="s">
+        <v>456</v>
+      </c>
+      <c r="E214" t="s">
         <v>457</v>
-      </c>
-      <c r="E214" t="s">
-        <v>458</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -23313,10 +23332,10 @@
         <v>2014</v>
       </c>
       <c r="D215" t="s">
+        <v>458</v>
+      </c>
+      <c r="E215" t="s">
         <v>459</v>
-      </c>
-      <c r="E215" t="s">
-        <v>460</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -23408,10 +23427,10 @@
         <v>2014</v>
       </c>
       <c r="D216" t="s">
+        <v>460</v>
+      </c>
+      <c r="E216" t="s">
         <v>461</v>
-      </c>
-      <c r="E216" t="s">
-        <v>462</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -23503,10 +23522,10 @@
         <v>2014</v>
       </c>
       <c r="D217" t="s">
+        <v>462</v>
+      </c>
+      <c r="E217" t="s">
         <v>463</v>
-      </c>
-      <c r="E217" t="s">
-        <v>464</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -23598,10 +23617,10 @@
         <v>2014</v>
       </c>
       <c r="D218" t="s">
+        <v>464</v>
+      </c>
+      <c r="E218" t="s">
         <v>465</v>
-      </c>
-      <c r="E218" t="s">
-        <v>466</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -23693,10 +23712,10 @@
         <v>2014</v>
       </c>
       <c r="D219" t="s">
+        <v>466</v>
+      </c>
+      <c r="E219" t="s">
         <v>467</v>
-      </c>
-      <c r="E219" t="s">
-        <v>468</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -23788,10 +23807,10 @@
         <v>2014</v>
       </c>
       <c r="D220" t="s">
+        <v>468</v>
+      </c>
+      <c r="E220" t="s">
         <v>469</v>
-      </c>
-      <c r="E220" t="s">
-        <v>470</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -23883,10 +23902,10 @@
         <v>2014</v>
       </c>
       <c r="D221" t="s">
+        <v>470</v>
+      </c>
+      <c r="E221" t="s">
         <v>471</v>
-      </c>
-      <c r="E221" t="s">
-        <v>472</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -23978,10 +23997,10 @@
         <v>2014</v>
       </c>
       <c r="D222" t="s">
+        <v>472</v>
+      </c>
+      <c r="E222" t="s">
         <v>473</v>
-      </c>
-      <c r="E222" t="s">
-        <v>474</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -24073,10 +24092,10 @@
         <v>2014</v>
       </c>
       <c r="D223" t="s">
+        <v>474</v>
+      </c>
+      <c r="E223" t="s">
         <v>475</v>
-      </c>
-      <c r="E223" t="s">
-        <v>476</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -24168,10 +24187,10 @@
         <v>2014</v>
       </c>
       <c r="D224" t="s">
+        <v>476</v>
+      </c>
+      <c r="E224" t="s">
         <v>477</v>
-      </c>
-      <c r="E224" t="s">
-        <v>478</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -24263,10 +24282,10 @@
         <v>2014</v>
       </c>
       <c r="D225" t="s">
+        <v>478</v>
+      </c>
+      <c r="E225" t="s">
         <v>479</v>
-      </c>
-      <c r="E225" t="s">
-        <v>480</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -24358,10 +24377,10 @@
         <v>2014</v>
       </c>
       <c r="D226" t="s">
+        <v>480</v>
+      </c>
+      <c r="E226" t="s">
         <v>481</v>
-      </c>
-      <c r="E226" t="s">
-        <v>482</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -24453,10 +24472,10 @@
         <v>2014</v>
       </c>
       <c r="D227" t="s">
+        <v>482</v>
+      </c>
+      <c r="E227" t="s">
         <v>483</v>
-      </c>
-      <c r="E227" t="s">
-        <v>484</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -24548,10 +24567,10 @@
         <v>2014</v>
       </c>
       <c r="D228" t="s">
+        <v>484</v>
+      </c>
+      <c r="E228" t="s">
         <v>485</v>
-      </c>
-      <c r="E228" t="s">
-        <v>486</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -24643,10 +24662,10 @@
         <v>2014</v>
       </c>
       <c r="D229" t="s">
+        <v>486</v>
+      </c>
+      <c r="E229" t="s">
         <v>487</v>
-      </c>
-      <c r="E229" t="s">
-        <v>488</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -24738,10 +24757,10 @@
         <v>2014</v>
       </c>
       <c r="D230" t="s">
+        <v>488</v>
+      </c>
+      <c r="E230" t="s">
         <v>489</v>
-      </c>
-      <c r="E230" t="s">
-        <v>490</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -24833,10 +24852,10 @@
         <v>2014</v>
       </c>
       <c r="D231" t="s">
+        <v>490</v>
+      </c>
+      <c r="E231" t="s">
         <v>491</v>
-      </c>
-      <c r="E231" t="s">
-        <v>492</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -24928,10 +24947,10 @@
         <v>2014</v>
       </c>
       <c r="D232" t="s">
+        <v>492</v>
+      </c>
+      <c r="E232" t="s">
         <v>493</v>
-      </c>
-      <c r="E232" t="s">
-        <v>494</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -25023,10 +25042,10 @@
         <v>2014</v>
       </c>
       <c r="D233" t="s">
+        <v>494</v>
+      </c>
+      <c r="E233" t="s">
         <v>495</v>
-      </c>
-      <c r="E233" t="s">
-        <v>496</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -25118,10 +25137,10 @@
         <v>2014</v>
       </c>
       <c r="D234" t="s">
+        <v>496</v>
+      </c>
+      <c r="E234" t="s">
         <v>497</v>
-      </c>
-      <c r="E234" t="s">
-        <v>498</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -25213,10 +25232,10 @@
         <v>2014</v>
       </c>
       <c r="D235" t="s">
+        <v>498</v>
+      </c>
+      <c r="E235" t="s">
         <v>499</v>
-      </c>
-      <c r="E235" t="s">
-        <v>500</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -25308,10 +25327,10 @@
         <v>2014</v>
       </c>
       <c r="D236" t="s">
+        <v>500</v>
+      </c>
+      <c r="E236" t="s">
         <v>501</v>
-      </c>
-      <c r="E236" t="s">
-        <v>502</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -25403,10 +25422,10 @@
         <v>2014</v>
       </c>
       <c r="D237" t="s">
+        <v>502</v>
+      </c>
+      <c r="E237" t="s">
         <v>503</v>
-      </c>
-      <c r="E237" t="s">
-        <v>504</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -25498,10 +25517,10 @@
         <v>2014</v>
       </c>
       <c r="D238" t="s">
+        <v>504</v>
+      </c>
+      <c r="E238" t="s">
         <v>505</v>
-      </c>
-      <c r="E238" t="s">
-        <v>506</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -25593,10 +25612,10 @@
         <v>2014</v>
       </c>
       <c r="D239" t="s">
+        <v>506</v>
+      </c>
+      <c r="E239" t="s">
         <v>507</v>
-      </c>
-      <c r="E239" t="s">
-        <v>508</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -25688,10 +25707,10 @@
         <v>2014</v>
       </c>
       <c r="D240" t="s">
+        <v>508</v>
+      </c>
+      <c r="E240" t="s">
         <v>509</v>
-      </c>
-      <c r="E240" t="s">
-        <v>510</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -25783,10 +25802,10 @@
         <v>2014</v>
       </c>
       <c r="D241" t="s">
+        <v>510</v>
+      </c>
+      <c r="E241" t="s">
         <v>511</v>
-      </c>
-      <c r="E241" t="s">
-        <v>512</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -25878,10 +25897,10 @@
         <v>2014</v>
       </c>
       <c r="D242" t="s">
+        <v>512</v>
+      </c>
+      <c r="E242" t="s">
         <v>513</v>
-      </c>
-      <c r="E242" t="s">
-        <v>514</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -25973,10 +25992,10 @@
         <v>2014</v>
       </c>
       <c r="D243" t="s">
+        <v>514</v>
+      </c>
+      <c r="E243" t="s">
         <v>515</v>
-      </c>
-      <c r="E243" t="s">
-        <v>516</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -26068,10 +26087,10 @@
         <v>2014</v>
       </c>
       <c r="D244" t="s">
+        <v>516</v>
+      </c>
+      <c r="E244" t="s">
         <v>517</v>
-      </c>
-      <c r="E244" t="s">
-        <v>518</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -26163,10 +26182,10 @@
         <v>2014</v>
       </c>
       <c r="D245" t="s">
+        <v>518</v>
+      </c>
+      <c r="E245" t="s">
         <v>519</v>
-      </c>
-      <c r="E245" t="s">
-        <v>520</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -26258,10 +26277,10 @@
         <v>2014</v>
       </c>
       <c r="D246" t="s">
+        <v>520</v>
+      </c>
+      <c r="E246" t="s">
         <v>521</v>
-      </c>
-      <c r="E246" t="s">
-        <v>522</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -26353,10 +26372,10 @@
         <v>2014</v>
       </c>
       <c r="D247" t="s">
+        <v>522</v>
+      </c>
+      <c r="E247" t="s">
         <v>523</v>
-      </c>
-      <c r="E247" t="s">
-        <v>524</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -26448,10 +26467,10 @@
         <v>2014</v>
       </c>
       <c r="D248" t="s">
+        <v>524</v>
+      </c>
+      <c r="E248" t="s">
         <v>525</v>
-      </c>
-      <c r="E248" t="s">
-        <v>526</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -26543,10 +26562,10 @@
         <v>2014</v>
       </c>
       <c r="D249" t="s">
+        <v>526</v>
+      </c>
+      <c r="E249" t="s">
         <v>527</v>
-      </c>
-      <c r="E249" t="s">
-        <v>528</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -26638,10 +26657,10 @@
         <v>2014</v>
       </c>
       <c r="D250" t="s">
+        <v>528</v>
+      </c>
+      <c r="E250" t="s">
         <v>529</v>
-      </c>
-      <c r="E250" t="s">
-        <v>530</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -26733,10 +26752,10 @@
         <v>2014</v>
       </c>
       <c r="D251" t="s">
+        <v>530</v>
+      </c>
+      <c r="E251" t="s">
         <v>531</v>
-      </c>
-      <c r="E251" t="s">
-        <v>532</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -26828,10 +26847,10 @@
         <v>2014</v>
       </c>
       <c r="D252" t="s">
+        <v>532</v>
+      </c>
+      <c r="E252" t="s">
         <v>533</v>
-      </c>
-      <c r="E252" t="s">
-        <v>534</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -26923,10 +26942,10 @@
         <v>2014</v>
       </c>
       <c r="D253" t="s">
+        <v>534</v>
+      </c>
+      <c r="E253" t="s">
         <v>535</v>
-      </c>
-      <c r="E253" t="s">
-        <v>536</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -27018,10 +27037,10 @@
         <v>2014</v>
       </c>
       <c r="D254" t="s">
+        <v>536</v>
+      </c>
+      <c r="E254" t="s">
         <v>537</v>
-      </c>
-      <c r="E254" t="s">
-        <v>538</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -27113,10 +27132,10 @@
         <v>2014</v>
       </c>
       <c r="D255" t="s">
+        <v>538</v>
+      </c>
+      <c r="E255" t="s">
         <v>539</v>
-      </c>
-      <c r="E255" t="s">
-        <v>540</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -27208,10 +27227,10 @@
         <v>2014</v>
       </c>
       <c r="D256" t="s">
+        <v>540</v>
+      </c>
+      <c r="E256" t="s">
         <v>541</v>
-      </c>
-      <c r="E256" t="s">
-        <v>542</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -27303,10 +27322,10 @@
         <v>2014</v>
       </c>
       <c r="D257" t="s">
+        <v>542</v>
+      </c>
+      <c r="E257" t="s">
         <v>543</v>
-      </c>
-      <c r="E257" t="s">
-        <v>544</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -27398,10 +27417,10 @@
         <v>2014</v>
       </c>
       <c r="D258" t="s">
+        <v>544</v>
+      </c>
+      <c r="E258" t="s">
         <v>545</v>
-      </c>
-      <c r="E258" t="s">
-        <v>546</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -27493,10 +27512,10 @@
         <v>2014</v>
       </c>
       <c r="D259" t="s">
+        <v>546</v>
+      </c>
+      <c r="E259" t="s">
         <v>547</v>
-      </c>
-      <c r="E259" t="s">
-        <v>548</v>
       </c>
       <c r="F259">
         <v>1</v>
@@ -27588,10 +27607,10 @@
         <v>2014</v>
       </c>
       <c r="D260" t="s">
+        <v>548</v>
+      </c>
+      <c r="E260" t="s">
         <v>549</v>
-      </c>
-      <c r="E260" t="s">
-        <v>550</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -27683,10 +27702,10 @@
         <v>2014</v>
       </c>
       <c r="D261" t="s">
+        <v>550</v>
+      </c>
+      <c r="E261" t="s">
         <v>551</v>
-      </c>
-      <c r="E261" t="s">
-        <v>552</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -27778,10 +27797,10 @@
         <v>2014</v>
       </c>
       <c r="D262" t="s">
+        <v>552</v>
+      </c>
+      <c r="E262" t="s">
         <v>553</v>
-      </c>
-      <c r="E262" t="s">
-        <v>554</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -27873,10 +27892,10 @@
         <v>2014</v>
       </c>
       <c r="D263" t="s">
+        <v>554</v>
+      </c>
+      <c r="E263" t="s">
         <v>555</v>
-      </c>
-      <c r="E263" t="s">
-        <v>556</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -27968,10 +27987,10 @@
         <v>2014</v>
       </c>
       <c r="D264" t="s">
+        <v>556</v>
+      </c>
+      <c r="E264" t="s">
         <v>557</v>
-      </c>
-      <c r="E264" t="s">
-        <v>558</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -28063,10 +28082,10 @@
         <v>2014</v>
       </c>
       <c r="D265" t="s">
+        <v>558</v>
+      </c>
+      <c r="E265" t="s">
         <v>559</v>
-      </c>
-      <c r="E265" t="s">
-        <v>560</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -28158,10 +28177,10 @@
         <v>2014</v>
       </c>
       <c r="D266" t="s">
+        <v>560</v>
+      </c>
+      <c r="E266" t="s">
         <v>561</v>
-      </c>
-      <c r="E266" t="s">
-        <v>562</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -28253,10 +28272,10 @@
         <v>2014</v>
       </c>
       <c r="D267" t="s">
+        <v>562</v>
+      </c>
+      <c r="E267" t="s">
         <v>563</v>
-      </c>
-      <c r="E267" t="s">
-        <v>564</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -28348,10 +28367,10 @@
         <v>2014</v>
       </c>
       <c r="D268" t="s">
+        <v>564</v>
+      </c>
+      <c r="E268" t="s">
         <v>565</v>
-      </c>
-      <c r="E268" t="s">
-        <v>566</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -28443,10 +28462,10 @@
         <v>2014</v>
       </c>
       <c r="D269" t="s">
+        <v>566</v>
+      </c>
+      <c r="E269" t="s">
         <v>567</v>
-      </c>
-      <c r="E269" t="s">
-        <v>568</v>
       </c>
       <c r="F269">
         <v>1</v>
@@ -28538,10 +28557,10 @@
         <v>2014</v>
       </c>
       <c r="D270" t="s">
+        <v>568</v>
+      </c>
+      <c r="E270" t="s">
         <v>569</v>
-      </c>
-      <c r="E270" t="s">
-        <v>570</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -28633,10 +28652,10 @@
         <v>2014</v>
       </c>
       <c r="D271" t="s">
+        <v>570</v>
+      </c>
+      <c r="E271" t="s">
         <v>571</v>
-      </c>
-      <c r="E271" t="s">
-        <v>572</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -28728,10 +28747,10 @@
         <v>2014</v>
       </c>
       <c r="D272" t="s">
+        <v>572</v>
+      </c>
+      <c r="E272" t="s">
         <v>573</v>
-      </c>
-      <c r="E272" t="s">
-        <v>574</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -28823,10 +28842,10 @@
         <v>2014</v>
       </c>
       <c r="D273" t="s">
+        <v>574</v>
+      </c>
+      <c r="E273" t="s">
         <v>575</v>
-      </c>
-      <c r="E273" t="s">
-        <v>576</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -28918,10 +28937,10 @@
         <v>2014</v>
       </c>
       <c r="D274" t="s">
+        <v>576</v>
+      </c>
+      <c r="E274" t="s">
         <v>577</v>
-      </c>
-      <c r="E274" t="s">
-        <v>578</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -29013,10 +29032,10 @@
         <v>2014</v>
       </c>
       <c r="D275" t="s">
+        <v>578</v>
+      </c>
+      <c r="E275" t="s">
         <v>579</v>
-      </c>
-      <c r="E275" t="s">
-        <v>580</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -29108,10 +29127,10 @@
         <v>2014</v>
       </c>
       <c r="D276" t="s">
+        <v>580</v>
+      </c>
+      <c r="E276" t="s">
         <v>581</v>
-      </c>
-      <c r="E276" t="s">
-        <v>582</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -29203,10 +29222,10 @@
         <v>2014</v>
       </c>
       <c r="D277" t="s">
+        <v>582</v>
+      </c>
+      <c r="E277" t="s">
         <v>583</v>
-      </c>
-      <c r="E277" t="s">
-        <v>584</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -29298,10 +29317,10 @@
         <v>2014</v>
       </c>
       <c r="D278" t="s">
+        <v>584</v>
+      </c>
+      <c r="E278" t="s">
         <v>585</v>
-      </c>
-      <c r="E278" t="s">
-        <v>586</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -29393,10 +29412,10 @@
         <v>2014</v>
       </c>
       <c r="D279" t="s">
+        <v>586</v>
+      </c>
+      <c r="E279" t="s">
         <v>587</v>
-      </c>
-      <c r="E279" t="s">
-        <v>588</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -29488,10 +29507,10 @@
         <v>2014</v>
       </c>
       <c r="D280" t="s">
+        <v>588</v>
+      </c>
+      <c r="E280" t="s">
         <v>589</v>
-      </c>
-      <c r="E280" t="s">
-        <v>590</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -29583,10 +29602,10 @@
         <v>2014</v>
       </c>
       <c r="D281" t="s">
+        <v>590</v>
+      </c>
+      <c r="E281" t="s">
         <v>591</v>
-      </c>
-      <c r="E281" t="s">
-        <v>592</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -29678,10 +29697,10 @@
         <v>2014</v>
       </c>
       <c r="D282" t="s">
+        <v>592</v>
+      </c>
+      <c r="E282" t="s">
         <v>593</v>
-      </c>
-      <c r="E282" t="s">
-        <v>594</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -29773,10 +29792,10 @@
         <v>2014</v>
       </c>
       <c r="D283" t="s">
+        <v>594</v>
+      </c>
+      <c r="E283" t="s">
         <v>595</v>
-      </c>
-      <c r="E283" t="s">
-        <v>596</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -29868,10 +29887,10 @@
         <v>2014</v>
       </c>
       <c r="D284" t="s">
+        <v>596</v>
+      </c>
+      <c r="E284" t="s">
         <v>597</v>
-      </c>
-      <c r="E284" t="s">
-        <v>598</v>
       </c>
       <c r="F284">
         <v>1</v>
@@ -29963,10 +29982,10 @@
         <v>2014</v>
       </c>
       <c r="D285" t="s">
+        <v>598</v>
+      </c>
+      <c r="E285" t="s">
         <v>599</v>
-      </c>
-      <c r="E285" t="s">
-        <v>600</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -30058,10 +30077,10 @@
         <v>2014</v>
       </c>
       <c r="D286" t="s">
+        <v>600</v>
+      </c>
+      <c r="E286" t="s">
         <v>601</v>
-      </c>
-      <c r="E286" t="s">
-        <v>602</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -30153,10 +30172,10 @@
         <v>2014</v>
       </c>
       <c r="D287" t="s">
+        <v>602</v>
+      </c>
+      <c r="E287" t="s">
         <v>603</v>
-      </c>
-      <c r="E287" t="s">
-        <v>604</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -30248,10 +30267,10 @@
         <v>2014</v>
       </c>
       <c r="D288" t="s">
+        <v>604</v>
+      </c>
+      <c r="E288" t="s">
         <v>605</v>
-      </c>
-      <c r="E288" t="s">
-        <v>606</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -30343,10 +30362,10 @@
         <v>2014</v>
       </c>
       <c r="D289" t="s">
+        <v>606</v>
+      </c>
+      <c r="E289" t="s">
         <v>607</v>
-      </c>
-      <c r="E289" t="s">
-        <v>608</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -30438,10 +30457,10 @@
         <v>2014</v>
       </c>
       <c r="D290" t="s">
+        <v>608</v>
+      </c>
+      <c r="E290" t="s">
         <v>609</v>
-      </c>
-      <c r="E290" t="s">
-        <v>610</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -30533,10 +30552,10 @@
         <v>2014</v>
       </c>
       <c r="D291" t="s">
+        <v>610</v>
+      </c>
+      <c r="E291" t="s">
         <v>611</v>
-      </c>
-      <c r="E291" t="s">
-        <v>612</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -30628,10 +30647,10 @@
         <v>2014</v>
       </c>
       <c r="D292" t="s">
+        <v>612</v>
+      </c>
+      <c r="E292" t="s">
         <v>613</v>
-      </c>
-      <c r="E292" t="s">
-        <v>614</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -30723,10 +30742,10 @@
         <v>2014</v>
       </c>
       <c r="D293" t="s">
+        <v>614</v>
+      </c>
+      <c r="E293" t="s">
         <v>615</v>
-      </c>
-      <c r="E293" t="s">
-        <v>616</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -30818,10 +30837,10 @@
         <v>2014</v>
       </c>
       <c r="D294" t="s">
+        <v>616</v>
+      </c>
+      <c r="E294" t="s">
         <v>617</v>
-      </c>
-      <c r="E294" t="s">
-        <v>618</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -30913,10 +30932,10 @@
         <v>2014</v>
       </c>
       <c r="D295" t="s">
+        <v>618</v>
+      </c>
+      <c r="E295" t="s">
         <v>619</v>
-      </c>
-      <c r="E295" t="s">
-        <v>620</v>
       </c>
       <c r="F295">
         <v>1</v>
@@ -31008,10 +31027,10 @@
         <v>2014</v>
       </c>
       <c r="D296" t="s">
+        <v>620</v>
+      </c>
+      <c r="E296" t="s">
         <v>621</v>
-      </c>
-      <c r="E296" t="s">
-        <v>622</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -31103,10 +31122,10 @@
         <v>2014</v>
       </c>
       <c r="D297" t="s">
+        <v>622</v>
+      </c>
+      <c r="E297" t="s">
         <v>623</v>
-      </c>
-      <c r="E297" t="s">
-        <v>624</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -31198,10 +31217,10 @@
         <v>2014</v>
       </c>
       <c r="D298" t="s">
+        <v>624</v>
+      </c>
+      <c r="E298" t="s">
         <v>625</v>
-      </c>
-      <c r="E298" t="s">
-        <v>626</v>
       </c>
       <c r="F298">
         <v>1</v>
@@ -31293,10 +31312,10 @@
         <v>2014</v>
       </c>
       <c r="D299" t="s">
+        <v>626</v>
+      </c>
+      <c r="E299" t="s">
         <v>627</v>
-      </c>
-      <c r="E299" t="s">
-        <v>628</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -31388,10 +31407,10 @@
         <v>2014</v>
       </c>
       <c r="D300" t="s">
+        <v>628</v>
+      </c>
+      <c r="E300" t="s">
         <v>629</v>
-      </c>
-      <c r="E300" t="s">
-        <v>630</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -31477,16 +31496,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C301">
         <v>2013</v>
       </c>
       <c r="D301" t="s">
+        <v>631</v>
+      </c>
+      <c r="E301" t="s">
         <v>632</v>
-      </c>
-      <c r="E301" t="s">
-        <v>633</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -31572,16 +31591,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C302">
         <v>2013</v>
       </c>
       <c r="D302" t="s">
+        <v>633</v>
+      </c>
+      <c r="E302" t="s">
         <v>634</v>
-      </c>
-      <c r="E302" t="s">
-        <v>635</v>
       </c>
       <c r="F302">
         <v>1</v>
@@ -31667,16 +31686,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C303">
         <v>2013</v>
       </c>
       <c r="D303" t="s">
+        <v>635</v>
+      </c>
+      <c r="E303" t="s">
         <v>636</v>
-      </c>
-      <c r="E303" t="s">
-        <v>637</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -31762,16 +31781,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C304">
         <v>2013</v>
       </c>
       <c r="D304" t="s">
+        <v>637</v>
+      </c>
+      <c r="E304" t="s">
         <v>638</v>
-      </c>
-      <c r="E304" t="s">
-        <v>639</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -31857,16 +31876,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C305">
         <v>2013</v>
       </c>
       <c r="D305" t="s">
+        <v>639</v>
+      </c>
+      <c r="E305" t="s">
         <v>640</v>
-      </c>
-      <c r="E305" t="s">
-        <v>641</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -31952,16 +31971,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C306">
         <v>2013</v>
       </c>
       <c r="D306" t="s">
+        <v>641</v>
+      </c>
+      <c r="E306" t="s">
         <v>642</v>
-      </c>
-      <c r="E306" t="s">
-        <v>643</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -32047,16 +32066,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C307">
         <v>2013</v>
       </c>
       <c r="D307" t="s">
+        <v>643</v>
+      </c>
+      <c r="E307" t="s">
         <v>644</v>
-      </c>
-      <c r="E307" t="s">
-        <v>645</v>
       </c>
       <c r="F307">
         <v>1</v>
@@ -32142,16 +32161,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C308">
         <v>2013</v>
       </c>
       <c r="D308" t="s">
+        <v>645</v>
+      </c>
+      <c r="E308" t="s">
         <v>646</v>
-      </c>
-      <c r="E308" t="s">
-        <v>647</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -32237,16 +32256,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C309">
         <v>2013</v>
       </c>
       <c r="D309" t="s">
+        <v>647</v>
+      </c>
+      <c r="E309" t="s">
         <v>648</v>
-      </c>
-      <c r="E309" t="s">
-        <v>649</v>
       </c>
       <c r="F309">
         <v>1</v>
@@ -32332,16 +32351,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C310">
         <v>2013</v>
       </c>
       <c r="D310" t="s">
+        <v>649</v>
+      </c>
+      <c r="E310" t="s">
         <v>650</v>
-      </c>
-      <c r="E310" t="s">
-        <v>651</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -32427,16 +32446,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C311">
         <v>2013</v>
       </c>
       <c r="D311" t="s">
+        <v>651</v>
+      </c>
+      <c r="E311" t="s">
         <v>652</v>
-      </c>
-      <c r="E311" t="s">
-        <v>653</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -32522,16 +32541,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C312">
         <v>2013</v>
       </c>
       <c r="D312" t="s">
+        <v>653</v>
+      </c>
+      <c r="E312" t="s">
         <v>654</v>
-      </c>
-      <c r="E312" t="s">
-        <v>655</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -32617,16 +32636,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C313">
         <v>2013</v>
       </c>
       <c r="D313" t="s">
+        <v>655</v>
+      </c>
+      <c r="E313" t="s">
         <v>656</v>
-      </c>
-      <c r="E313" t="s">
-        <v>657</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -32712,16 +32731,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C314">
         <v>2013</v>
       </c>
       <c r="D314" t="s">
+        <v>657</v>
+      </c>
+      <c r="E314" t="s">
         <v>658</v>
-      </c>
-      <c r="E314" t="s">
-        <v>659</v>
       </c>
       <c r="F314">
         <v>1</v>
@@ -32807,16 +32826,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C315">
         <v>2013</v>
       </c>
       <c r="D315" t="s">
+        <v>659</v>
+      </c>
+      <c r="E315" t="s">
         <v>660</v>
-      </c>
-      <c r="E315" t="s">
-        <v>661</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -32902,16 +32921,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C316">
         <v>2013</v>
       </c>
       <c r="D316" t="s">
+        <v>661</v>
+      </c>
+      <c r="E316" t="s">
         <v>662</v>
-      </c>
-      <c r="E316" t="s">
-        <v>663</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -32997,16 +33016,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C317">
         <v>2013</v>
       </c>
       <c r="D317" t="s">
+        <v>663</v>
+      </c>
+      <c r="E317" t="s">
         <v>664</v>
-      </c>
-      <c r="E317" t="s">
-        <v>665</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -33092,16 +33111,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C318">
         <v>2013</v>
       </c>
       <c r="D318" t="s">
+        <v>665</v>
+      </c>
+      <c r="E318" t="s">
         <v>666</v>
-      </c>
-      <c r="E318" t="s">
-        <v>667</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -33187,16 +33206,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C319">
         <v>2013</v>
       </c>
       <c r="D319" t="s">
+        <v>667</v>
+      </c>
+      <c r="E319" t="s">
         <v>668</v>
-      </c>
-      <c r="E319" t="s">
-        <v>669</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -33282,16 +33301,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C320">
         <v>2013</v>
       </c>
       <c r="D320" t="s">
+        <v>669</v>
+      </c>
+      <c r="E320" t="s">
         <v>670</v>
-      </c>
-      <c r="E320" t="s">
-        <v>671</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -33377,16 +33396,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C321">
         <v>2013</v>
       </c>
       <c r="D321" t="s">
+        <v>671</v>
+      </c>
+      <c r="E321" t="s">
         <v>672</v>
-      </c>
-      <c r="E321" t="s">
-        <v>673</v>
       </c>
       <c r="F321">
         <v>1</v>
@@ -33472,16 +33491,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C322">
         <v>2013</v>
       </c>
       <c r="D322" t="s">
+        <v>673</v>
+      </c>
+      <c r="E322" t="s">
         <v>674</v>
-      </c>
-      <c r="E322" t="s">
-        <v>675</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -33567,16 +33586,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C323">
         <v>2013</v>
       </c>
       <c r="D323" t="s">
+        <v>675</v>
+      </c>
+      <c r="E323" t="s">
         <v>676</v>
-      </c>
-      <c r="E323" t="s">
-        <v>677</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -33662,16 +33681,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C324">
         <v>2013</v>
       </c>
       <c r="D324" t="s">
+        <v>677</v>
+      </c>
+      <c r="E324" t="s">
         <v>678</v>
-      </c>
-      <c r="E324" t="s">
-        <v>679</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -33757,16 +33776,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C325">
         <v>2013</v>
       </c>
       <c r="D325" t="s">
+        <v>679</v>
+      </c>
+      <c r="E325" t="s">
         <v>680</v>
-      </c>
-      <c r="E325" t="s">
-        <v>681</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -33852,16 +33871,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C326">
         <v>2013</v>
       </c>
       <c r="D326" t="s">
+        <v>681</v>
+      </c>
+      <c r="E326" t="s">
         <v>682</v>
-      </c>
-      <c r="E326" t="s">
-        <v>683</v>
       </c>
       <c r="F326">
         <v>1</v>
@@ -33947,16 +33966,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C327">
         <v>2013</v>
       </c>
       <c r="D327" t="s">
+        <v>683</v>
+      </c>
+      <c r="E327" t="s">
         <v>684</v>
-      </c>
-      <c r="E327" t="s">
-        <v>685</v>
       </c>
       <c r="F327">
         <v>1</v>
@@ -34042,16 +34061,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C328">
         <v>2013</v>
       </c>
       <c r="D328" t="s">
+        <v>685</v>
+      </c>
+      <c r="E328" t="s">
         <v>686</v>
-      </c>
-      <c r="E328" t="s">
-        <v>687</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -34137,16 +34156,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C329">
         <v>2013</v>
       </c>
       <c r="D329" t="s">
+        <v>687</v>
+      </c>
+      <c r="E329" t="s">
         <v>688</v>
-      </c>
-      <c r="E329" t="s">
-        <v>689</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -34232,16 +34251,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C330">
         <v>2013</v>
       </c>
       <c r="D330" t="s">
+        <v>689</v>
+      </c>
+      <c r="E330" t="s">
         <v>690</v>
-      </c>
-      <c r="E330" t="s">
-        <v>691</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -34327,16 +34346,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C331">
         <v>2013</v>
       </c>
       <c r="D331" t="s">
+        <v>691</v>
+      </c>
+      <c r="E331" t="s">
         <v>692</v>
-      </c>
-      <c r="E331" t="s">
-        <v>693</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -34422,16 +34441,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C332">
         <v>2013</v>
       </c>
       <c r="D332" t="s">
+        <v>693</v>
+      </c>
+      <c r="E332" t="s">
         <v>694</v>
-      </c>
-      <c r="E332" t="s">
-        <v>695</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -34517,16 +34536,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C333">
         <v>2013</v>
       </c>
       <c r="D333" t="s">
+        <v>695</v>
+      </c>
+      <c r="E333" t="s">
         <v>696</v>
-      </c>
-      <c r="E333" t="s">
-        <v>697</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -34612,16 +34631,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C334">
         <v>2013</v>
       </c>
       <c r="D334" t="s">
+        <v>697</v>
+      </c>
+      <c r="E334" t="s">
         <v>698</v>
-      </c>
-      <c r="E334" t="s">
-        <v>699</v>
       </c>
       <c r="F334">
         <v>1</v>
@@ -34707,16 +34726,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C335">
         <v>2013</v>
       </c>
       <c r="D335" t="s">
+        <v>699</v>
+      </c>
+      <c r="E335" t="s">
         <v>700</v>
-      </c>
-      <c r="E335" t="s">
-        <v>701</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -34802,16 +34821,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C336">
         <v>2013</v>
       </c>
       <c r="D336" t="s">
+        <v>701</v>
+      </c>
+      <c r="E336" t="s">
         <v>702</v>
-      </c>
-      <c r="E336" t="s">
-        <v>703</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -34897,16 +34916,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C337">
         <v>2013</v>
       </c>
       <c r="D337" t="s">
+        <v>703</v>
+      </c>
+      <c r="E337" t="s">
         <v>704</v>
-      </c>
-      <c r="E337" t="s">
-        <v>705</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -34992,16 +35011,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C338">
         <v>2013</v>
       </c>
       <c r="D338" t="s">
+        <v>705</v>
+      </c>
+      <c r="E338" t="s">
         <v>706</v>
-      </c>
-      <c r="E338" t="s">
-        <v>707</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -35087,16 +35106,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C339">
         <v>2013</v>
       </c>
       <c r="D339" t="s">
+        <v>707</v>
+      </c>
+      <c r="E339" t="s">
         <v>708</v>
-      </c>
-      <c r="E339" t="s">
-        <v>709</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -35182,16 +35201,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C340">
         <v>2013</v>
       </c>
       <c r="D340" t="s">
+        <v>709</v>
+      </c>
+      <c r="E340" t="s">
         <v>710</v>
-      </c>
-      <c r="E340" t="s">
-        <v>711</v>
       </c>
       <c r="F340">
         <v>1</v>
@@ -35277,16 +35296,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C341">
         <v>2013</v>
       </c>
       <c r="D341" t="s">
+        <v>711</v>
+      </c>
+      <c r="E341" t="s">
         <v>712</v>
-      </c>
-      <c r="E341" t="s">
-        <v>713</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -35372,16 +35391,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C342">
         <v>2013</v>
       </c>
       <c r="D342" t="s">
+        <v>713</v>
+      </c>
+      <c r="E342" t="s">
         <v>714</v>
-      </c>
-      <c r="E342" t="s">
-        <v>715</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -35467,16 +35486,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C343">
         <v>2013</v>
       </c>
       <c r="D343" t="s">
+        <v>715</v>
+      </c>
+      <c r="E343" t="s">
         <v>716</v>
-      </c>
-      <c r="E343" t="s">
-        <v>717</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -35562,16 +35581,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C344">
         <v>2013</v>
       </c>
       <c r="D344" t="s">
+        <v>717</v>
+      </c>
+      <c r="E344" t="s">
         <v>718</v>
-      </c>
-      <c r="E344" t="s">
-        <v>719</v>
       </c>
       <c r="F344">
         <v>1</v>
@@ -35657,16 +35676,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C345">
         <v>2013</v>
       </c>
       <c r="D345" t="s">
+        <v>719</v>
+      </c>
+      <c r="E345" t="s">
         <v>720</v>
-      </c>
-      <c r="E345" t="s">
-        <v>721</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -35752,16 +35771,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C346">
         <v>2013</v>
       </c>
       <c r="D346" t="s">
+        <v>721</v>
+      </c>
+      <c r="E346" t="s">
         <v>722</v>
-      </c>
-      <c r="E346" t="s">
-        <v>723</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -35847,16 +35866,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C347">
         <v>2013</v>
       </c>
       <c r="D347" t="s">
+        <v>723</v>
+      </c>
+      <c r="E347" t="s">
         <v>724</v>
-      </c>
-      <c r="E347" t="s">
-        <v>725</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -35942,16 +35961,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C348">
         <v>2013</v>
       </c>
       <c r="D348" t="s">
+        <v>725</v>
+      </c>
+      <c r="E348" t="s">
         <v>726</v>
-      </c>
-      <c r="E348" t="s">
-        <v>727</v>
       </c>
       <c r="F348">
         <v>1</v>
@@ -36037,16 +36056,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C349">
         <v>2013</v>
       </c>
       <c r="D349" t="s">
+        <v>727</v>
+      </c>
+      <c r="E349" t="s">
         <v>728</v>
-      </c>
-      <c r="E349" t="s">
-        <v>729</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -36132,16 +36151,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C350">
         <v>2013</v>
       </c>
       <c r="D350" t="s">
+        <v>729</v>
+      </c>
+      <c r="E350" t="s">
         <v>730</v>
-      </c>
-      <c r="E350" t="s">
-        <v>731</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -36227,16 +36246,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C351">
         <v>2013</v>
       </c>
       <c r="D351" t="s">
+        <v>731</v>
+      </c>
+      <c r="E351" t="s">
         <v>732</v>
-      </c>
-      <c r="E351" t="s">
-        <v>733</v>
       </c>
       <c r="F351">
         <v>1</v>
@@ -36322,16 +36341,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C352">
         <v>2013</v>
       </c>
       <c r="D352" t="s">
+        <v>733</v>
+      </c>
+      <c r="E352" t="s">
         <v>734</v>
-      </c>
-      <c r="E352" t="s">
-        <v>735</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -36417,16 +36436,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C353">
         <v>2013</v>
       </c>
       <c r="D353" t="s">
+        <v>735</v>
+      </c>
+      <c r="E353" t="s">
         <v>736</v>
-      </c>
-      <c r="E353" t="s">
-        <v>737</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -36512,16 +36531,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C354">
         <v>2013</v>
       </c>
       <c r="D354" t="s">
+        <v>737</v>
+      </c>
+      <c r="E354" t="s">
         <v>738</v>
-      </c>
-      <c r="E354" t="s">
-        <v>739</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -36607,16 +36626,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C355">
         <v>2014</v>
       </c>
       <c r="D355" t="s">
+        <v>739</v>
+      </c>
+      <c r="E355" t="s">
         <v>740</v>
-      </c>
-      <c r="E355" t="s">
-        <v>741</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -36702,16 +36721,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C356">
         <v>2014</v>
       </c>
       <c r="D356" t="s">
+        <v>741</v>
+      </c>
+      <c r="E356" t="s">
         <v>742</v>
-      </c>
-      <c r="E356" t="s">
-        <v>743</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -36797,16 +36816,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C357">
         <v>2014</v>
       </c>
       <c r="D357" t="s">
+        <v>743</v>
+      </c>
+      <c r="E357" t="s">
         <v>744</v>
-      </c>
-      <c r="E357" t="s">
-        <v>745</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -36892,16 +36911,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C358">
         <v>2014</v>
       </c>
       <c r="D358" t="s">
+        <v>745</v>
+      </c>
+      <c r="E358" t="s">
         <v>746</v>
-      </c>
-      <c r="E358" t="s">
-        <v>747</v>
       </c>
       <c r="F358">
         <v>1</v>
@@ -36987,16 +37006,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C359">
         <v>2014</v>
       </c>
       <c r="D359" t="s">
+        <v>747</v>
+      </c>
+      <c r="E359" t="s">
         <v>748</v>
-      </c>
-      <c r="E359" t="s">
-        <v>749</v>
       </c>
       <c r="F359">
         <v>1</v>
@@ -37082,16 +37101,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C360">
         <v>2014</v>
       </c>
       <c r="D360" t="s">
+        <v>749</v>
+      </c>
+      <c r="E360" t="s">
         <v>750</v>
-      </c>
-      <c r="E360" t="s">
-        <v>751</v>
       </c>
       <c r="F360">
         <v>1</v>
@@ -37177,16 +37196,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C361">
         <v>2014</v>
       </c>
       <c r="D361" t="s">
+        <v>751</v>
+      </c>
+      <c r="E361" t="s">
         <v>752</v>
-      </c>
-      <c r="E361" t="s">
-        <v>753</v>
       </c>
       <c r="F361">
         <v>1</v>
@@ -37272,16 +37291,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C362">
         <v>2014</v>
       </c>
       <c r="D362" t="s">
+        <v>753</v>
+      </c>
+      <c r="E362" t="s">
         <v>754</v>
-      </c>
-      <c r="E362" t="s">
-        <v>755</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -37367,16 +37386,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C363">
         <v>2014</v>
       </c>
       <c r="D363" t="s">
+        <v>755</v>
+      </c>
+      <c r="E363" t="s">
         <v>756</v>
-      </c>
-      <c r="E363" t="s">
-        <v>757</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -37462,16 +37481,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C364">
         <v>2014</v>
       </c>
       <c r="D364" t="s">
+        <v>757</v>
+      </c>
+      <c r="E364" t="s">
         <v>758</v>
-      </c>
-      <c r="E364" t="s">
-        <v>759</v>
       </c>
       <c r="F364">
         <v>1</v>
@@ -37557,16 +37576,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C365">
         <v>2014</v>
       </c>
       <c r="D365" t="s">
+        <v>759</v>
+      </c>
+      <c r="E365" t="s">
         <v>760</v>
-      </c>
-      <c r="E365" t="s">
-        <v>761</v>
       </c>
       <c r="F365">
         <v>1</v>
@@ -37652,16 +37671,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C366">
         <v>2014</v>
       </c>
       <c r="D366" t="s">
+        <v>761</v>
+      </c>
+      <c r="E366" t="s">
         <v>762</v>
-      </c>
-      <c r="E366" t="s">
-        <v>763</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -37747,16 +37766,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C367">
         <v>2014</v>
       </c>
       <c r="D367" t="s">
+        <v>763</v>
+      </c>
+      <c r="E367" t="s">
         <v>764</v>
-      </c>
-      <c r="E367" t="s">
-        <v>765</v>
       </c>
       <c r="F367">
         <v>1</v>
@@ -37842,16 +37861,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C368">
         <v>2014</v>
       </c>
       <c r="D368" t="s">
+        <v>765</v>
+      </c>
+      <c r="E368" t="s">
         <v>766</v>
-      </c>
-      <c r="E368" t="s">
-        <v>767</v>
       </c>
       <c r="F368">
         <v>1</v>
@@ -37937,16 +37956,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C369">
         <v>2014</v>
       </c>
       <c r="D369" t="s">
+        <v>767</v>
+      </c>
+      <c r="E369" t="s">
         <v>768</v>
-      </c>
-      <c r="E369" t="s">
-        <v>769</v>
       </c>
       <c r="F369">
         <v>1</v>
@@ -38032,16 +38051,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C370">
         <v>2014</v>
       </c>
       <c r="D370" t="s">
+        <v>769</v>
+      </c>
+      <c r="E370" t="s">
         <v>770</v>
-      </c>
-      <c r="E370" t="s">
-        <v>771</v>
       </c>
       <c r="F370">
         <v>1</v>
@@ -38127,16 +38146,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C371">
         <v>2014</v>
       </c>
       <c r="D371" t="s">
+        <v>771</v>
+      </c>
+      <c r="E371" t="s">
         <v>772</v>
-      </c>
-      <c r="E371" t="s">
-        <v>773</v>
       </c>
       <c r="F371">
         <v>1</v>
@@ -38222,16 +38241,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C372">
         <v>2014</v>
       </c>
       <c r="D372" t="s">
+        <v>773</v>
+      </c>
+      <c r="E372" t="s">
         <v>774</v>
-      </c>
-      <c r="E372" t="s">
-        <v>775</v>
       </c>
       <c r="F372">
         <v>1</v>
@@ -38317,16 +38336,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C373">
         <v>2014</v>
       </c>
       <c r="D373" t="s">
+        <v>775</v>
+      </c>
+      <c r="E373" t="s">
         <v>776</v>
-      </c>
-      <c r="E373" t="s">
-        <v>777</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -38412,16 +38431,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C374">
         <v>2014</v>
       </c>
       <c r="D374" t="s">
+        <v>777</v>
+      </c>
+      <c r="E374" t="s">
         <v>778</v>
-      </c>
-      <c r="E374" t="s">
-        <v>779</v>
       </c>
       <c r="F374">
         <v>1</v>
@@ -38507,16 +38526,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C375">
         <v>2014</v>
       </c>
       <c r="D375" t="s">
+        <v>779</v>
+      </c>
+      <c r="E375" t="s">
         <v>780</v>
-      </c>
-      <c r="E375" t="s">
-        <v>781</v>
       </c>
       <c r="F375">
         <v>1</v>
@@ -38602,16 +38621,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C376">
         <v>2014</v>
       </c>
       <c r="D376" t="s">
+        <v>781</v>
+      </c>
+      <c r="E376" t="s">
         <v>782</v>
-      </c>
-      <c r="E376" t="s">
-        <v>783</v>
       </c>
       <c r="F376">
         <v>1</v>
@@ -38697,16 +38716,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C377">
         <v>2014</v>
       </c>
       <c r="D377" t="s">
+        <v>783</v>
+      </c>
+      <c r="E377" t="s">
         <v>784</v>
-      </c>
-      <c r="E377" t="s">
-        <v>785</v>
       </c>
       <c r="F377">
         <v>1</v>
@@ -38792,16 +38811,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C378">
         <v>2014</v>
       </c>
       <c r="D378" t="s">
+        <v>785</v>
+      </c>
+      <c r="E378" t="s">
         <v>786</v>
-      </c>
-      <c r="E378" t="s">
-        <v>787</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -38887,16 +38906,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C379">
         <v>2014</v>
       </c>
       <c r="D379" t="s">
+        <v>787</v>
+      </c>
+      <c r="E379" t="s">
         <v>788</v>
-      </c>
-      <c r="E379" t="s">
-        <v>789</v>
       </c>
       <c r="F379">
         <v>1</v>
@@ -38982,16 +39001,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C380">
         <v>2014</v>
       </c>
       <c r="D380" t="s">
+        <v>789</v>
+      </c>
+      <c r="E380" t="s">
         <v>790</v>
-      </c>
-      <c r="E380" t="s">
-        <v>791</v>
       </c>
       <c r="F380">
         <v>1</v>
@@ -39077,16 +39096,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C381">
         <v>2014</v>
       </c>
       <c r="D381" t="s">
+        <v>791</v>
+      </c>
+      <c r="E381" t="s">
         <v>792</v>
-      </c>
-      <c r="E381" t="s">
-        <v>793</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -39172,16 +39191,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C382">
         <v>2014</v>
       </c>
       <c r="D382" t="s">
+        <v>793</v>
+      </c>
+      <c r="E382" t="s">
         <v>794</v>
-      </c>
-      <c r="E382" t="s">
-        <v>795</v>
       </c>
       <c r="F382">
         <v>1</v>
@@ -39267,16 +39286,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C383">
         <v>2014</v>
       </c>
       <c r="D383" t="s">
+        <v>795</v>
+      </c>
+      <c r="E383" t="s">
         <v>796</v>
-      </c>
-      <c r="E383" t="s">
-        <v>797</v>
       </c>
       <c r="F383">
         <v>1</v>
@@ -39362,16 +39381,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C384">
         <v>2014</v>
       </c>
       <c r="D384" t="s">
+        <v>797</v>
+      </c>
+      <c r="E384" t="s">
         <v>798</v>
-      </c>
-      <c r="E384" t="s">
-        <v>799</v>
       </c>
       <c r="F384">
         <v>1</v>
@@ -39457,16 +39476,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C385">
         <v>2014</v>
       </c>
       <c r="D385" t="s">
+        <v>799</v>
+      </c>
+      <c r="E385" t="s">
         <v>800</v>
-      </c>
-      <c r="E385" t="s">
-        <v>801</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -39552,16 +39571,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C386">
         <v>2014</v>
       </c>
       <c r="D386" t="s">
+        <v>801</v>
+      </c>
+      <c r="E386" t="s">
         <v>802</v>
-      </c>
-      <c r="E386" t="s">
-        <v>803</v>
       </c>
       <c r="F386">
         <v>1</v>
@@ -39647,16 +39666,16 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C387">
         <v>2014</v>
       </c>
       <c r="D387" t="s">
+        <v>803</v>
+      </c>
+      <c r="E387" t="s">
         <v>804</v>
-      </c>
-      <c r="E387" t="s">
-        <v>805</v>
       </c>
       <c r="F387">
         <v>1</v>
@@ -39742,16 +39761,16 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C388">
         <v>2014</v>
       </c>
       <c r="D388" t="s">
+        <v>805</v>
+      </c>
+      <c r="E388" t="s">
         <v>806</v>
-      </c>
-      <c r="E388" t="s">
-        <v>807</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -39837,16 +39856,16 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C389">
         <v>2014</v>
       </c>
       <c r="D389" t="s">
+        <v>807</v>
+      </c>
+      <c r="E389" t="s">
         <v>808</v>
-      </c>
-      <c r="E389" t="s">
-        <v>809</v>
       </c>
       <c r="F389">
         <v>1</v>
@@ -39932,16 +39951,16 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C390">
         <v>2014</v>
       </c>
       <c r="D390" t="s">
+        <v>809</v>
+      </c>
+      <c r="E390" t="s">
         <v>810</v>
-      </c>
-      <c r="E390" t="s">
-        <v>811</v>
       </c>
       <c r="F390">
         <v>1</v>
@@ -40027,16 +40046,16 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C391">
         <v>2014</v>
       </c>
       <c r="D391" t="s">
+        <v>811</v>
+      </c>
+      <c r="E391" t="s">
         <v>812</v>
-      </c>
-      <c r="E391" t="s">
-        <v>813</v>
       </c>
       <c r="F391">
         <v>1</v>
@@ -40122,16 +40141,16 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C392">
         <v>2014</v>
       </c>
       <c r="D392" t="s">
+        <v>813</v>
+      </c>
+      <c r="E392" t="s">
         <v>814</v>
-      </c>
-      <c r="E392" t="s">
-        <v>815</v>
       </c>
       <c r="F392">
         <v>1</v>
@@ -40217,16 +40236,16 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C393">
         <v>2014</v>
       </c>
       <c r="D393" t="s">
+        <v>815</v>
+      </c>
+      <c r="E393" t="s">
         <v>816</v>
-      </c>
-      <c r="E393" t="s">
-        <v>817</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -40312,16 +40331,16 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C394">
         <v>2014</v>
       </c>
       <c r="D394" t="s">
+        <v>817</v>
+      </c>
+      <c r="E394" t="s">
         <v>818</v>
-      </c>
-      <c r="E394" t="s">
-        <v>819</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -40407,16 +40426,16 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C395">
         <v>2014</v>
       </c>
       <c r="D395" t="s">
+        <v>819</v>
+      </c>
+      <c r="E395" t="s">
         <v>820</v>
-      </c>
-      <c r="E395" t="s">
-        <v>821</v>
       </c>
       <c r="F395">
         <v>1</v>
@@ -40502,16 +40521,16 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C396">
         <v>2014</v>
       </c>
       <c r="D396" t="s">
+        <v>821</v>
+      </c>
+      <c r="E396" t="s">
         <v>822</v>
-      </c>
-      <c r="E396" t="s">
-        <v>823</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -40597,16 +40616,16 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C397">
         <v>2014</v>
       </c>
       <c r="D397" t="s">
+        <v>823</v>
+      </c>
+      <c r="E397" t="s">
         <v>824</v>
-      </c>
-      <c r="E397" t="s">
-        <v>825</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -40692,16 +40711,16 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C398">
         <v>2014</v>
       </c>
       <c r="D398" t="s">
+        <v>825</v>
+      </c>
+      <c r="E398" t="s">
         <v>826</v>
-      </c>
-      <c r="E398" t="s">
-        <v>827</v>
       </c>
       <c r="F398">
         <v>1</v>
@@ -40787,16 +40806,16 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C399">
         <v>2014</v>
       </c>
       <c r="D399" t="s">
+        <v>827</v>
+      </c>
+      <c r="E399" t="s">
         <v>828</v>
-      </c>
-      <c r="E399" t="s">
-        <v>829</v>
       </c>
       <c r="F399">
         <v>1</v>
@@ -40882,16 +40901,16 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C400">
         <v>2014</v>
       </c>
       <c r="D400" t="s">
+        <v>829</v>
+      </c>
+      <c r="E400" t="s">
         <v>830</v>
-      </c>
-      <c r="E400" t="s">
-        <v>831</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -40977,16 +40996,16 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C401">
         <v>2014</v>
       </c>
       <c r="D401" t="s">
+        <v>831</v>
+      </c>
+      <c r="E401" t="s">
         <v>832</v>
-      </c>
-      <c r="E401" t="s">
-        <v>833</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -41072,16 +41091,16 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C402">
         <v>2014</v>
       </c>
       <c r="D402" t="s">
+        <v>833</v>
+      </c>
+      <c r="E402" t="s">
         <v>834</v>
-      </c>
-      <c r="E402" t="s">
-        <v>835</v>
       </c>
       <c r="F402">
         <v>1</v>
@@ -41167,16 +41186,16 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C403">
         <v>2014</v>
       </c>
       <c r="D403" t="s">
+        <v>835</v>
+      </c>
+      <c r="E403" t="s">
         <v>836</v>
-      </c>
-      <c r="E403" t="s">
-        <v>837</v>
       </c>
       <c r="F403">
         <v>1</v>
@@ -41262,16 +41281,16 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C404">
         <v>2014</v>
       </c>
       <c r="D404" t="s">
+        <v>837</v>
+      </c>
+      <c r="E404" t="s">
         <v>838</v>
-      </c>
-      <c r="E404" t="s">
-        <v>839</v>
       </c>
       <c r="F404">
         <v>1</v>
@@ -41357,16 +41376,16 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C405">
         <v>2014</v>
       </c>
       <c r="D405" t="s">
+        <v>839</v>
+      </c>
+      <c r="E405" t="s">
         <v>840</v>
-      </c>
-      <c r="E405" t="s">
-        <v>841</v>
       </c>
       <c r="F405">
         <v>1</v>
@@ -41452,16 +41471,16 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C406">
         <v>2014</v>
       </c>
       <c r="D406" t="s">
+        <v>841</v>
+      </c>
+      <c r="E406" t="s">
         <v>842</v>
-      </c>
-      <c r="E406" t="s">
-        <v>843</v>
       </c>
       <c r="F406">
         <v>1</v>
@@ -41547,16 +41566,16 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C407">
         <v>2014</v>
       </c>
       <c r="D407" t="s">
+        <v>843</v>
+      </c>
+      <c r="E407" t="s">
         <v>844</v>
-      </c>
-      <c r="E407" t="s">
-        <v>845</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -41642,16 +41661,16 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C408">
         <v>2014</v>
       </c>
       <c r="D408" t="s">
+        <v>845</v>
+      </c>
+      <c r="E408" t="s">
         <v>846</v>
-      </c>
-      <c r="E408" t="s">
-        <v>847</v>
       </c>
       <c r="F408">
         <v>1</v>
@@ -41737,16 +41756,16 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C409">
         <v>2014</v>
       </c>
       <c r="D409" t="s">
+        <v>847</v>
+      </c>
+      <c r="E409" t="s">
         <v>848</v>
-      </c>
-      <c r="E409" t="s">
-        <v>849</v>
       </c>
       <c r="F409">
         <v>1</v>
@@ -41832,16 +41851,16 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C410">
         <v>2014</v>
       </c>
       <c r="D410" t="s">
+        <v>849</v>
+      </c>
+      <c r="E410" t="s">
         <v>850</v>
-      </c>
-      <c r="E410" t="s">
-        <v>851</v>
       </c>
       <c r="F410">
         <v>1</v>
@@ -41927,16 +41946,16 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C411">
         <v>2014</v>
       </c>
       <c r="D411" t="s">
+        <v>851</v>
+      </c>
+      <c r="E411" t="s">
         <v>852</v>
-      </c>
-      <c r="E411" t="s">
-        <v>853</v>
       </c>
       <c r="F411">
         <v>1</v>
@@ -42022,16 +42041,16 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C412">
         <v>2014</v>
       </c>
       <c r="D412" t="s">
+        <v>853</v>
+      </c>
+      <c r="E412" t="s">
         <v>854</v>
-      </c>
-      <c r="E412" t="s">
-        <v>855</v>
       </c>
       <c r="F412">
         <v>1</v>
@@ -42115,6 +42134,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
